--- a/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/% actividad economica Terciaria - Indígenas Panama.xlsx
+++ b/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/% actividad economica Terciaria - Indígenas Panama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Indígenas\Indicadores sociodemo poblaciones y PI CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F4666-3F99-40FB-B731-32BE9255B748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDD237D-1A9A-4F24-ABA9-D7D3F36B3713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="42">
   <si>
     <t>CEPAL/CELADE Redatam+SP 10/12/2020</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Ambos</t>
+  </si>
+  <si>
+    <t>Grupo edad</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -279,17 +282,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -376,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -402,13 +394,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,29 +417,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -511,13 +520,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -527,6 +529,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -580,13 +589,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93942804-E5E6-4E74-9CDA-9CA0B047FBD0}" name="Tabla1" displayName="Tabla1" ref="A1:D109" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:D109" xr:uid="{AA85396C-8481-4C54-8E20-519D4B4575A2}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2BEEFFFC-80B9-4244-A3EF-DE568133705E}" name="Sexo" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F74E1599-A722-4132-9ECD-141AC3FB0EF0}" name="Zona" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{DE54147F-8429-4F2F-B393-A9F676D88EF9}" name="año censo" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9663A376-1C90-4811-91BE-4DDB8EB7A660}" name="%" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93942804-E5E6-4E74-9CDA-9CA0B047FBD0}" name="Tabla1" displayName="Tabla1" ref="A1:E91" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E91" xr:uid="{AA85396C-8481-4C54-8E20-519D4B4575A2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2BEEFFFC-80B9-4244-A3EF-DE568133705E}" name="Sexo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F74E1599-A722-4132-9ECD-141AC3FB0EF0}" name="Zona" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DE54147F-8429-4F2F-B393-A9F676D88EF9}" name="Grupo edad" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{73A5FFAC-3C22-4244-B7AC-24769C096BB9}" name="año censo" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B92318CE-6935-41B3-8D4F-4531C21AFB26}" name="%" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -933,146 +943,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1099,10 +1109,10 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1112,10 +1122,10 @@
     </row>
     <row r="12" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4"/>
@@ -1134,8 +1144,8 @@
     </row>
     <row r="13" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1154,8 +1164,8 @@
     </row>
     <row r="14" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1174,8 +1184,8 @@
     </row>
     <row r="15" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1194,8 +1204,8 @@
     </row>
     <row r="16" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1214,8 +1224,8 @@
     </row>
     <row r="17" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1234,8 +1244,8 @@
     </row>
     <row r="18" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1254,8 +1264,8 @@
     </row>
     <row r="19" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="4"/>
@@ -1274,8 +1284,8 @@
     </row>
     <row r="20" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
@@ -1294,8 +1304,8 @@
     </row>
     <row r="21" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
@@ -1314,8 +1324,8 @@
     </row>
     <row r="22" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="4" t="s">
         <v>18</v>
       </c>
@@ -1334,8 +1344,8 @@
     </row>
     <row r="23" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="4" t="s">
         <v>19</v>
       </c>
@@ -1354,8 +1364,8 @@
     </row>
     <row r="24" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1374,8 +1384,8 @@
     </row>
     <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="4" t="s">
         <v>21</v>
       </c>
@@ -1394,8 +1404,8 @@
     </row>
     <row r="26" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="4"/>
@@ -1414,8 +1424,8 @@
     </row>
     <row r="27" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1434,8 +1444,8 @@
     </row>
     <row r="28" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1454,8 +1464,8 @@
     </row>
     <row r="29" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
@@ -1474,8 +1484,8 @@
     </row>
     <row r="30" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1504,8 @@
     </row>
     <row r="31" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1514,8 +1524,8 @@
     </row>
     <row r="32" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
       <c r="D32" s="4" t="s">
         <v>21</v>
       </c>
@@ -1534,8 +1544,8 @@
     </row>
     <row r="33" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="4"/>
@@ -1554,8 +1564,8 @@
     </row>
     <row r="34" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
@@ -1574,8 +1584,8 @@
     </row>
     <row r="35" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="4" t="s">
         <v>17</v>
       </c>
@@ -1594,8 +1604,8 @@
     </row>
     <row r="36" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="4" t="s">
         <v>18</v>
       </c>
@@ -1614,8 +1624,8 @@
     </row>
     <row r="37" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
@@ -1634,8 +1644,8 @@
     </row>
     <row r="38" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="4" t="s">
         <v>20</v>
       </c>
@@ -1654,8 +1664,8 @@
     </row>
     <row r="39" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
@@ -1674,8 +1684,8 @@
     </row>
     <row r="40" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="4"/>
@@ -1694,8 +1704,8 @@
     </row>
     <row r="41" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="4" t="s">
         <v>16</v>
       </c>
@@ -1714,8 +1724,8 @@
     </row>
     <row r="42" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="4" t="s">
         <v>17</v>
       </c>
@@ -1734,8 +1744,8 @@
     </row>
     <row r="43" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="4" t="s">
         <v>18</v>
       </c>
@@ -1754,8 +1764,8 @@
     </row>
     <row r="44" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="4" t="s">
         <v>19</v>
       </c>
@@ -1774,8 +1784,8 @@
     </row>
     <row r="45" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
@@ -1794,8 +1804,8 @@
     </row>
     <row r="46" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="4" t="s">
         <v>21</v>
       </c>
@@ -1814,8 +1824,8 @@
     </row>
     <row r="47" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="4"/>
@@ -1834,8 +1844,8 @@
     </row>
     <row r="48" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="4" t="s">
         <v>16</v>
       </c>
@@ -1854,8 +1864,8 @@
     </row>
     <row r="49" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="4" t="s">
         <v>17</v>
       </c>
@@ -1874,8 +1884,8 @@
     </row>
     <row r="50" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
@@ -1894,8 +1904,8 @@
     </row>
     <row r="51" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
       <c r="D51" s="4" t="s">
         <v>19</v>
       </c>
@@ -1914,8 +1924,8 @@
     </row>
     <row r="52" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
       <c r="D52" s="4" t="s">
         <v>20</v>
       </c>
@@ -1934,8 +1944,8 @@
     </row>
     <row r="53" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="4" t="s">
         <v>21</v>
       </c>
@@ -1954,8 +1964,8 @@
     </row>
     <row r="54" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="4"/>
@@ -1974,8 +1984,8 @@
     </row>
     <row r="55" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
       <c r="D55" s="4" t="s">
         <v>16</v>
       </c>
@@ -1994,8 +2004,8 @@
     </row>
     <row r="56" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
       <c r="D56" s="4" t="s">
         <v>17</v>
       </c>
@@ -2014,8 +2024,8 @@
     </row>
     <row r="57" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
       <c r="D57" s="4" t="s">
         <v>18</v>
       </c>
@@ -2034,8 +2044,8 @@
     </row>
     <row r="58" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="4" t="s">
         <v>19</v>
       </c>
@@ -2054,8 +2064,8 @@
     </row>
     <row r="59" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
       <c r="D59" s="4" t="s">
         <v>20</v>
       </c>
@@ -2074,8 +2084,8 @@
     </row>
     <row r="60" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
       <c r="D60" s="4" t="s">
         <v>21</v>
       </c>
@@ -2094,8 +2104,8 @@
     </row>
     <row r="61" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="4"/>
@@ -2114,8 +2124,8 @@
     </row>
     <row r="62" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="4" t="s">
         <v>16</v>
       </c>
@@ -2134,8 +2144,8 @@
     </row>
     <row r="63" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="4" t="s">
         <v>17</v>
       </c>
@@ -2154,8 +2164,8 @@
     </row>
     <row r="64" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="4" t="s">
         <v>18</v>
       </c>
@@ -2174,8 +2184,8 @@
     </row>
     <row r="65" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="4" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2204,8 @@
     </row>
     <row r="66" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
       <c r="D66" s="4" t="s">
         <v>20</v>
       </c>
@@ -2214,8 +2224,8 @@
     </row>
     <row r="67" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
       <c r="D67" s="4" t="s">
         <v>21</v>
       </c>
@@ -2234,8 +2244,8 @@
     </row>
     <row r="68" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="24"/>
+      <c r="C68" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D68" s="4"/>
@@ -2254,8 +2264,8 @@
     </row>
     <row r="69" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
       <c r="D69" s="4" t="s">
         <v>16</v>
       </c>
@@ -2274,8 +2284,8 @@
     </row>
     <row r="70" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="4" t="s">
         <v>17</v>
       </c>
@@ -2294,8 +2304,8 @@
     </row>
     <row r="71" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="4" t="s">
         <v>18</v>
       </c>
@@ -2314,8 +2324,8 @@
     </row>
     <row r="72" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
       <c r="D72" s="4" t="s">
         <v>19</v>
       </c>
@@ -2334,8 +2344,8 @@
     </row>
     <row r="73" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="4" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2364,8 @@
     </row>
     <row r="74" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
       <c r="D74" s="4" t="s">
         <v>21</v>
       </c>
@@ -2387,19 +2397,19 @@
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2418,16 +2428,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="A76:K76"/>
     <mergeCell ref="B12:B74"/>
     <mergeCell ref="C12:C18"/>
@@ -2439,6 +2439,16 @@
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="C61:C67"/>
     <mergeCell ref="C68:C74"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,1537 +2461,1558 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="19">
-        <v>20.190000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="C2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="16">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="22">
-        <v>17.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="13">
+        <v>23.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="19">
-        <v>23.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="C4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="16">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="22">
-        <v>23.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="13">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="19">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="16">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="22">
-        <v>11.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E7" s="16">
+        <v>34.950000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D8" s="19">
-        <v>35.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E8" s="13">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D9" s="22">
-        <v>34.950000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E9" s="16">
+        <v>37.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D10" s="19">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="C10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E10" s="13">
+        <v>35.549999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D11" s="22">
-        <v>37.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="C11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E11" s="16">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="16">
+        <v>61.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="13">
+        <v>64.650000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="16">
+        <v>61.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="13">
+        <v>60.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="16">
+        <v>69.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E17" s="16">
+        <v>68.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E18" s="13">
+        <v>67.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E19" s="16">
+        <v>68.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E20" s="13">
+        <v>67.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E21" s="16">
+        <v>71.959999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="16">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="13">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="16">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="13">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="16">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E27" s="16">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E28" s="13">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E29" s="16">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E30" s="13">
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E31" s="16">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D12" s="19">
-        <v>35.549999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="C32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="16">
+        <v>42.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D13" s="22">
-        <v>25.85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="C33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="13">
+        <v>44.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="16">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="13">
+        <v>28.99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="16">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E37" s="16">
+        <v>66.91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E38" s="13">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E39" s="16">
+        <v>62.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E40" s="13">
+        <v>55.46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E41" s="16">
+        <v>31.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="19">
-        <v>62.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="C42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="16">
+        <v>94.58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D15" s="22">
-        <v>61.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="C43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="13">
+        <v>88.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D16" s="19">
-        <v>64.650000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="C44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="16">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="22">
-        <v>61.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="C45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="13">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="19">
-        <v>60.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="C46" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="16">
+        <v>72.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D19" s="22">
-        <v>69.13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="C47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E47" s="16">
+        <v>93.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D20" s="19">
-        <v>68.209999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="C48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E48" s="13">
+        <v>91.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D21" s="22">
-        <v>68.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="C49" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E49" s="16">
+        <v>89.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D22" s="19">
-        <v>67.37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="C50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E50" s="13">
+        <v>88.76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D23" s="22">
-        <v>68.11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="18" t="s">
+      <c r="C51" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E51" s="16">
+        <v>83.53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="16">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="13">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="16">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="13">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="16">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E57" s="16">
+        <v>45.27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E58" s="13">
+        <v>44.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E59" s="16">
+        <v>41.43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E60" s="13">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E61" s="16">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D24" s="19">
-        <v>67.94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="21" t="s">
+      <c r="C62" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="16">
+        <v>70.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D25" s="22">
-        <v>71.959999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="18" t="s">
+      <c r="C63" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E63" s="13">
+        <v>69.53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E64" s="16">
+        <v>66.88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E65" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="16">
+        <v>69.569999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E67" s="16">
+        <v>75.680000000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E68" s="13">
+        <v>74.09</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E69" s="16">
+        <v>73.930000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E70" s="13">
+        <v>73.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E71" s="16">
+        <v>73.760000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D26" s="19">
-        <v>8.59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="21" t="s">
+      <c r="C72" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="16">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D27" s="22">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="18" t="s">
+      <c r="C73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E73" s="13">
+        <v>12.91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D28" s="19">
-        <v>10.09</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21" t="s">
+      <c r="C74" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E74" s="16">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D29" s="22">
-        <v>11.21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="18" t="s">
+      <c r="C75" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E75" s="13">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D30" s="19">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="21" t="s">
+      <c r="C76" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E76" s="16">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D31" s="22">
-        <v>5.69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="18" t="s">
+      <c r="C77" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E77" s="16">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D32" s="19">
-        <v>20.12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="21" t="s">
+      <c r="C78" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E78" s="13">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D33" s="22">
-        <v>18.12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="18" t="s">
+      <c r="C79" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E79" s="16">
+        <v>25.93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D34" s="19">
-        <v>21.08</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="21" t="s">
+      <c r="C80" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E80" s="13">
+        <v>23.55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D35" s="22">
-        <v>22.07</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D36" s="19">
-        <v>21.16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D37" s="22">
-        <v>15.44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="18" t="s">
+      <c r="C81" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E81" s="16">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D38" s="19">
-        <v>39.880000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="21" t="s">
+      <c r="C82" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E82" s="16">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D39" s="22">
-        <v>42.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="18" t="s">
+      <c r="C83" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="13">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D40" s="19">
-        <v>44.73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="21" t="s">
+      <c r="C84" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E84" s="16">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D41" s="22">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="18" t="s">
+      <c r="C85" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E85" s="13">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D42" s="19">
-        <v>28.99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="21" t="s">
+      <c r="C86" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E86" s="16">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D43" s="22">
-        <v>15.73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="18" t="s">
+      <c r="C87" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E87" s="16">
+        <v>41.88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D44" s="19">
-        <v>62.23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="21" t="s">
+      <c r="C88" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E88" s="13">
+        <v>43.64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D45" s="22">
-        <v>66.91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="18" t="s">
+      <c r="C89" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="15">
+        <v>2010</v>
+      </c>
+      <c r="E89" s="16">
+        <v>43.32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D46" s="19">
-        <v>66.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="21" t="s">
+      <c r="C90" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="12">
+        <v>2010</v>
+      </c>
+      <c r="E90" s="13">
+        <v>39.869999999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D47" s="22">
-        <v>62.47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D48" s="19">
-        <v>55.46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D49" s="22">
-        <v>31.21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D50" s="19">
-        <v>89.12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D51" s="22">
-        <v>94.58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D52" s="19">
-        <v>88.87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D53" s="22">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D54" s="19">
-        <v>83.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D55" s="22">
-        <v>72.41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D56" s="19">
-        <v>90.94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D57" s="22">
-        <v>93.55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D58" s="19">
-        <v>91.85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D59" s="22">
-        <v>89.07</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D60" s="19">
-        <v>88.76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D61" s="22">
-        <v>83.53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D62" s="19">
-        <v>20.92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D63" s="22">
-        <v>21.02</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D64" s="19">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D65" s="22">
-        <v>22.23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D66" s="19">
-        <v>12.69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D67" s="22">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D68" s="19">
-        <v>40.17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D69" s="22">
-        <v>45.27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D70" s="19">
-        <v>44.24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D71" s="22">
-        <v>41.43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D72" s="19">
-        <v>33.44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D73" s="22">
-        <v>18.11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D74" s="19">
-        <v>68.239999999999995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C75" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D75" s="22">
-        <v>70.06</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D76" s="19">
-        <v>69.53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D77" s="22">
-        <v>66.88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C78" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D78" s="19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D79" s="22">
-        <v>69.569999999999993</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D80" s="19">
-        <v>74.33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D81" s="22">
-        <v>75.680000000000007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C82" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D82" s="19">
-        <v>74.09</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C83" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D83" s="22">
-        <v>73.930000000000007</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D84" s="19">
-        <v>73.45</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D85" s="22">
-        <v>73.760000000000005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D86" s="19">
-        <v>10.63</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C87" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D87" s="22">
-        <v>8.7799999999999994</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D88" s="19">
-        <v>12.91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D89" s="22">
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D90" s="19">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D91" s="22">
-        <v>5.96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C92" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D92" s="19">
-        <v>23.86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D93" s="22">
-        <v>23.17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D94" s="19">
-        <v>25.32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D95" s="22">
-        <v>25.93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D96" s="19">
-        <v>23.55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D97" s="22">
-        <v>15.83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D98" s="19">
-        <v>23.68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C99" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D99" s="22">
-        <v>22.03</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C100" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D100" s="19">
-        <v>27.66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C101" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D101" s="22">
-        <v>26.44</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C102" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D102" s="19">
-        <v>20.95</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C103" s="21">
-        <v>2000</v>
-      </c>
-      <c r="D103" s="22">
-        <v>11.97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D104" s="19">
-        <v>41.39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C105" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D105" s="22">
-        <v>41.88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C106" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D106" s="19">
-        <v>43.64</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C107" s="21">
-        <v>2010</v>
-      </c>
-      <c r="D107" s="22">
-        <v>43.32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C108" s="18">
-        <v>2010</v>
-      </c>
-      <c r="D108" s="19">
-        <v>39.869999999999997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C109" s="24">
-        <v>2010</v>
-      </c>
-      <c r="D109" s="25">
+      <c r="C91" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="18">
+        <v>2010</v>
+      </c>
+      <c r="E91" s="19">
         <v>26.62</v>
       </c>
     </row>
